--- a/pred_ohlcv/54/2019-11-02 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 CHR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C2" t="n">
         <v>28.6</v>
@@ -417,15 +422,18 @@
         <v>28.6</v>
       </c>
       <c r="E2" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F2" t="n">
-        <v>45003.5077</v>
+        <v>53087.9369</v>
       </c>
       <c r="G2" t="n">
-        <v>27.72999999999999</v>
+        <v>27.70833333333332</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>28.6</v>
       </c>
       <c r="F3" t="n">
-        <v>30386.3873</v>
+        <v>45003.5077</v>
       </c>
       <c r="G3" t="n">
-        <v>27.74999999999999</v>
+        <v>27.72999999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>28.6</v>
       </c>
       <c r="C4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
         <v>28.6</v>
       </c>
       <c r="F4" t="n">
-        <v>11263.2025</v>
+        <v>30386.3873</v>
       </c>
       <c r="G4" t="n">
-        <v>27.77499999999998</v>
+        <v>27.74999999999999</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E5" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F5" t="n">
-        <v>117186.7508</v>
+        <v>11263.2025</v>
       </c>
       <c r="G5" t="n">
-        <v>27.80333333333332</v>
+        <v>27.77499999999998</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C6" t="n">
         <v>29.3</v>
@@ -521,15 +538,18 @@
         <v>29.3</v>
       </c>
       <c r="E6" t="n">
-        <v>28.1</v>
+        <v>28.8</v>
       </c>
       <c r="F6" t="n">
-        <v>131574.8852</v>
+        <v>117186.7508</v>
       </c>
       <c r="G6" t="n">
-        <v>27.82833333333332</v>
+        <v>27.80333333333332</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C7" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>131574.8852</v>
       </c>
       <c r="G7" t="n">
-        <v>27.86166666666665</v>
+        <v>27.82833333333332</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>27.6</v>
+        <v>29.1</v>
       </c>
       <c r="D8" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="E8" t="n">
-        <v>27.6</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>15766.667</v>
+        <v>50000</v>
       </c>
       <c r="G8" t="n">
         <v>27.86166666666665</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="D9" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E9" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>15766.667</v>
       </c>
       <c r="G9" t="n">
-        <v>27.88499999999998</v>
+        <v>27.86166666666665</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="E10" t="n">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="F10" t="n">
-        <v>11892.2615</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>27.89499999999998</v>
+        <v>27.88499999999998</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>27.8</v>
       </c>
       <c r="F11" t="n">
-        <v>18891.9151</v>
+        <v>11892.2615</v>
       </c>
       <c r="G11" t="n">
-        <v>27.90499999999998</v>
+        <v>27.89499999999998</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="D12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="E12" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>18891.9151</v>
       </c>
       <c r="G12" t="n">
-        <v>27.91833333333331</v>
+        <v>27.90499999999998</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>28.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D13" t="n">
         <v>28.6</v>
       </c>
       <c r="E13" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>27.92666666666664</v>
+        <v>27.91833333333331</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="F14" t="n">
-        <v>42.7856</v>
+        <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>27.94166666666665</v>
+        <v>27.92666666666664</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>102973.0884</v>
+        <v>42.7856</v>
       </c>
       <c r="G15" t="n">
-        <v>27.94333333333332</v>
+        <v>27.94166666666665</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C16" t="n">
         <v>27.9</v>
@@ -781,15 +828,18 @@
         <v>27.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F16" t="n">
-        <v>53107.9369</v>
+        <v>102973.0884</v>
       </c>
       <c r="G16" t="n">
         <v>27.94333333333332</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C17" t="n">
         <v>27.9</v>
       </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9</v>
+        <v>27.2</v>
       </c>
       <c r="F17" t="n">
-        <v>51394.4285</v>
+        <v>53107.9369</v>
       </c>
       <c r="G17" t="n">
-        <v>27.94666666666665</v>
+        <v>27.94333333333332</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C18" t="n">
         <v>28</v>
       </c>
-      <c r="C18" t="n">
-        <v>28.3</v>
-      </c>
       <c r="D18" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F18" t="n">
-        <v>7337.9707</v>
+        <v>51394.4285</v>
       </c>
       <c r="G18" t="n">
-        <v>27.96666666666665</v>
+        <v>27.94666666666665</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>16.5167</v>
+        <v>7337.9707</v>
       </c>
       <c r="G19" t="n">
-        <v>27.97166666666665</v>
+        <v>27.96666666666665</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>16.5167</v>
       </c>
       <c r="G20" t="n">
-        <v>27.98166666666665</v>
+        <v>27.97166666666665</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F21" t="n">
-        <v>89.4054</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>27.98833333333332</v>
+        <v>27.98166666666665</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>22968.1978</v>
+        <v>89.4054</v>
       </c>
       <c r="G22" t="n">
-        <v>28.00333333333332</v>
+        <v>27.98833333333332</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>28</v>
+      </c>
+      <c r="C23" t="n">
         <v>28.3</v>
       </c>
-      <c r="C23" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D23" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E23" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>5825.3761</v>
+        <v>22968.1978</v>
       </c>
       <c r="G23" t="n">
-        <v>28.02166666666665</v>
+        <v>28.00333333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>28.3</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E24" t="n">
         <v>28.3</v>
       </c>
       <c r="F24" t="n">
-        <v>193.1751</v>
+        <v>5825.3761</v>
       </c>
       <c r="G24" t="n">
-        <v>28.03833333333332</v>
+        <v>28.02166666666665</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F25" t="n">
-        <v>400</v>
+        <v>193.1751</v>
       </c>
       <c r="G25" t="n">
-        <v>28.04999999999999</v>
+        <v>28.03833333333332</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G26" t="n">
-        <v>28.06999999999999</v>
+        <v>28.04999999999999</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>28.4</v>
       </c>
       <c r="C27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E27" t="n">
         <v>28.4</v>
       </c>
       <c r="F27" t="n">
-        <v>23215.9475</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>28.09166666666665</v>
+        <v>28.06999999999999</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C28" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="D28" t="n">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="E28" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F28" t="n">
-        <v>43215.9078</v>
+        <v>23215.9475</v>
       </c>
       <c r="G28" t="n">
-        <v>28.11666666666665</v>
+        <v>28.09166666666665</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C29" t="n">
         <v>29.1</v>
       </c>
-      <c r="C29" t="n">
-        <v>29.3</v>
-      </c>
       <c r="D29" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="E29" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F29" t="n">
-        <v>62543.8747</v>
+        <v>43215.9078</v>
       </c>
       <c r="G29" t="n">
-        <v>28.14499999999999</v>
+        <v>28.11666666666665</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,10 +1225,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C30" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>29.1</v>
       </c>
       <c r="D30" t="n">
         <v>29.3</v>
@@ -1148,12 +1237,15 @@
         <v>29.1</v>
       </c>
       <c r="F30" t="n">
-        <v>32956.21124948</v>
+        <v>62543.8747</v>
       </c>
       <c r="G30" t="n">
-        <v>28.17499999999999</v>
+        <v>28.14499999999999</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C31" t="n">
         <v>29.1</v>
       </c>
-      <c r="C31" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D31" t="n">
-        <v>30.5</v>
+        <v>29.3</v>
       </c>
       <c r="E31" t="n">
         <v>29.1</v>
       </c>
       <c r="F31" t="n">
-        <v>481769.9357726</v>
+        <v>32956.21124948</v>
       </c>
       <c r="G31" t="n">
-        <v>28.22333333333332</v>
+        <v>28.17499999999999</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C32" t="n">
         <v>30.5</v>
       </c>
-      <c r="C32" t="n">
-        <v>30.7</v>
-      </c>
       <c r="D32" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="E32" t="n">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="F32" t="n">
-        <v>40665.3827</v>
+        <v>481769.9357726</v>
       </c>
       <c r="G32" t="n">
-        <v>28.28333333333332</v>
+        <v>28.22333333333332</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="C33" t="n">
         <v>30.7</v>
@@ -1223,15 +1321,18 @@
         <v>30.7</v>
       </c>
       <c r="E33" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="F33" t="n">
-        <v>32414.1367</v>
+        <v>40665.3827</v>
       </c>
       <c r="G33" t="n">
-        <v>28.33499999999999</v>
+        <v>28.28333333333332</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,22 +1344,25 @@
         <v>30.7</v>
       </c>
       <c r="C34" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="E34" t="n">
         <v>30.7</v>
       </c>
       <c r="F34" t="n">
-        <v>68204.2294</v>
+        <v>32414.1367</v>
       </c>
       <c r="G34" t="n">
-        <v>28.40166666666666</v>
+        <v>28.33499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="C35" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>29.7</v>
+        <v>30.7</v>
       </c>
       <c r="F35" t="n">
-        <v>118213.2916</v>
+        <v>68204.2294</v>
       </c>
       <c r="G35" t="n">
-        <v>28.45333333333333</v>
+        <v>28.40166666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C36" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="D36" t="n">
         <v>30.9</v>
       </c>
       <c r="E36" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="F36" t="n">
-        <v>207087.4001</v>
+        <v>118213.2916</v>
       </c>
       <c r="G36" t="n">
-        <v>28.50333333333333</v>
+        <v>28.45333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C37" t="n">
         <v>30.7</v>
       </c>
-      <c r="C37" t="n">
-        <v>31.1</v>
-      </c>
       <c r="D37" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="E37" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="F37" t="n">
-        <v>232776.4981274</v>
+        <v>207087.4001</v>
       </c>
       <c r="G37" t="n">
-        <v>28.55666666666666</v>
+        <v>28.50333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6</v>
+        <v>31.1</v>
       </c>
       <c r="E38" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="F38" t="n">
-        <v>262604.0144</v>
+        <v>232776.4981274</v>
       </c>
       <c r="G38" t="n">
-        <v>28.61833333333332</v>
+        <v>28.55666666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>31.5</v>
+        <v>30.8</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="D39" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="E39" t="n">
         <v>30.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6262</v>
+        <v>262604.0144</v>
       </c>
       <c r="G39" t="n">
-        <v>28.66833333333332</v>
+        <v>28.61833333333332</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="C40" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E40" t="n">
-        <v>29.1</v>
+        <v>30.8</v>
       </c>
       <c r="F40" t="n">
-        <v>77471.5368</v>
+        <v>6262</v>
       </c>
       <c r="G40" t="n">
-        <v>28.71666666666665</v>
+        <v>28.66833333333332</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="C41" t="n">
-        <v>29.4</v>
+        <v>30.9</v>
       </c>
       <c r="D41" t="n">
-        <v>29.9</v>
+        <v>31.4</v>
       </c>
       <c r="E41" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="F41" t="n">
-        <v>678.896</v>
+        <v>77471.5368</v>
       </c>
       <c r="G41" t="n">
-        <v>28.73999999999999</v>
+        <v>28.71666666666665</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="C42" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D42" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E42" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F42" t="n">
-        <v>60814.0869</v>
+        <v>678.896</v>
       </c>
       <c r="G42" t="n">
-        <v>28.76833333333332</v>
+        <v>28.73999999999999</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="D43" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E43" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="F43" t="n">
-        <v>44331.3169</v>
+        <v>60814.0869</v>
       </c>
       <c r="G43" t="n">
-        <v>28.79666666666666</v>
+        <v>28.76833333333332</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="C44" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D44" t="n">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="E44" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F44" t="n">
-        <v>73404.53711003</v>
+        <v>44331.3169</v>
       </c>
       <c r="G44" t="n">
-        <v>28.83499999999999</v>
+        <v>28.79666666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>29.9</v>
+        <v>30.4</v>
       </c>
       <c r="D45" t="n">
-        <v>30.5</v>
+        <v>30.9</v>
       </c>
       <c r="E45" t="n">
         <v>29.9</v>
       </c>
       <c r="F45" t="n">
-        <v>20131.4204</v>
+        <v>73404.53711003</v>
       </c>
       <c r="G45" t="n">
-        <v>28.87666666666666</v>
+        <v>28.83499999999999</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.6</v>
+        <v>30.5</v>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D46" t="n">
         <v>30.5</v>
       </c>
       <c r="E46" t="n">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="F46" t="n">
-        <v>175285.3056</v>
+        <v>20131.4204</v>
       </c>
       <c r="G46" t="n">
-        <v>28.91166666666666</v>
+        <v>28.87666666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.2</v>
+        <v>29.6</v>
       </c>
       <c r="C47" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="E47" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>175285.3056</v>
       </c>
       <c r="G47" t="n">
-        <v>28.95999999999999</v>
+        <v>28.91166666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1747,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C48" t="n">
         <v>30.2</v>
@@ -1613,15 +1756,18 @@
         <v>30.2</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="F48" t="n">
-        <v>93648.9347</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>28.985</v>
+        <v>28.95999999999999</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="E49" t="n">
         <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>605.6179</v>
+        <v>93648.9347</v>
       </c>
       <c r="G49" t="n">
-        <v>29.00833333333333</v>
+        <v>28.985</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>4794.2606</v>
+        <v>605.6179</v>
       </c>
       <c r="G50" t="n">
-        <v>29.03333333333333</v>
+        <v>29.00833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F51" t="n">
-        <v>20872.7666</v>
+        <v>4794.2606</v>
       </c>
       <c r="G51" t="n">
-        <v>29.05833333333333</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="E52" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>15771.722</v>
+        <v>20872.7666</v>
       </c>
       <c r="G52" t="n">
-        <v>29.07</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C53" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="D53" t="n">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="E53" t="n">
         <v>29.4</v>
       </c>
       <c r="F53" t="n">
-        <v>29915.8197</v>
+        <v>15771.722</v>
       </c>
       <c r="G53" t="n">
-        <v>29.10166666666666</v>
+        <v>29.07</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="n">
         <v>29.8</v>
       </c>
       <c r="D54" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="E54" t="n">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="F54" t="n">
-        <v>6347.5428</v>
+        <v>29915.8197</v>
       </c>
       <c r="G54" t="n">
-        <v>29.13</v>
+        <v>29.10166666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>29.8</v>
       </c>
       <c r="C55" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="D55" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E55" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="F55" t="n">
-        <v>139983.2478</v>
+        <v>6347.5428</v>
       </c>
       <c r="G55" t="n">
-        <v>29.17</v>
+        <v>29.13</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1979,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="C56" t="n">
         <v>29.9</v>
@@ -1821,15 +1988,18 @@
         <v>29.9</v>
       </c>
       <c r="E56" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="F56" t="n">
-        <v>3344.48160535</v>
+        <v>139983.2478</v>
       </c>
       <c r="G56" t="n">
-        <v>29.215</v>
+        <v>29.17</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="D57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E57" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>3344.48160535</v>
       </c>
       <c r="G57" t="n">
-        <v>29.24333333333333</v>
+        <v>29.215</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,15 +2046,18 @@
         <v>29.7</v>
       </c>
       <c r="E58" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="F58" t="n">
-        <v>31113.5763</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>29.28333333333333</v>
+        <v>29.24333333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C59" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E59" t="n">
         <v>29.4</v>
       </c>
-      <c r="D59" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>28.6</v>
-      </c>
       <c r="F59" t="n">
-        <v>123990.6555</v>
+        <v>31113.5763</v>
       </c>
       <c r="G59" t="n">
-        <v>29.30333333333333</v>
+        <v>29.28333333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="D60" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="E60" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F60" t="n">
-        <v>53453.1604</v>
+        <v>123990.6555</v>
       </c>
       <c r="G60" t="n">
-        <v>29.31166666666667</v>
+        <v>29.30333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C61" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E61" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F61" t="n">
-        <v>113320.3682</v>
+        <v>53453.1604</v>
       </c>
       <c r="G61" t="n">
-        <v>29.32333333333333</v>
+        <v>29.31166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="C62" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="D62" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E62" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F62" t="n">
-        <v>75012.9644</v>
+        <v>113320.3682</v>
       </c>
       <c r="G62" t="n">
-        <v>29.32</v>
+        <v>29.32333333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C63" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D63" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E63" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F63" t="n">
-        <v>19757.4676</v>
+        <v>75012.9644</v>
       </c>
       <c r="G63" t="n">
-        <v>29.31833333333334</v>
+        <v>29.32</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C64" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="D64" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E64" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>19757.4676</v>
       </c>
       <c r="G64" t="n">
-        <v>29.32</v>
+        <v>29.31833333333334</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C65" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D65" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E65" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F65" t="n">
-        <v>21825.0431</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>29.31000000000001</v>
+        <v>29.32</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>28.5</v>
       </c>
       <c r="C66" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D66" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E66" t="n">
         <v>28.5</v>
       </c>
       <c r="F66" t="n">
-        <v>17604.7463</v>
+        <v>21825.0431</v>
       </c>
       <c r="G66" t="n">
-        <v>29.29666666666667</v>
+        <v>29.31000000000001</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>28.5</v>
       </c>
       <c r="F67" t="n">
-        <v>3562.2835</v>
+        <v>17604.7463</v>
       </c>
       <c r="G67" t="n">
-        <v>29.28666666666668</v>
+        <v>29.29666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C68" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="D68" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="E68" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F68" t="n">
-        <v>86391.94439999999</v>
+        <v>3562.2835</v>
       </c>
       <c r="G68" t="n">
-        <v>29.30666666666668</v>
+        <v>29.28666666666668</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C69" t="n">
         <v>28.8</v>
@@ -2159,15 +2365,18 @@
         <v>28.8</v>
       </c>
       <c r="E69" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F69" t="n">
-        <v>24200.1388</v>
+        <v>86391.94439999999</v>
       </c>
       <c r="G69" t="n">
-        <v>29.31000000000001</v>
+        <v>29.30666666666668</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>28.8</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D70" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E70" t="n">
         <v>28.8</v>
       </c>
       <c r="F70" t="n">
-        <v>65007.0162</v>
+        <v>24200.1388</v>
       </c>
       <c r="G70" t="n">
-        <v>29.33000000000001</v>
+        <v>29.31000000000001</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>28.8</v>
       </c>
       <c r="C71" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" t="n">
         <v>28.8</v>
       </c>
-      <c r="E71" t="n">
-        <v>28.5</v>
-      </c>
       <c r="F71" t="n">
-        <v>68418.7372</v>
+        <v>65007.0162</v>
       </c>
       <c r="G71" t="n">
-        <v>29.34166666666668</v>
+        <v>29.33000000000001</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D72" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="E72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F72" t="n">
-        <v>45408.2704</v>
+        <v>68418.7372</v>
       </c>
       <c r="G72" t="n">
-        <v>29.33833333333335</v>
+        <v>29.34166666666668</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E73" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>45408.2704</v>
       </c>
       <c r="G73" t="n">
-        <v>29.34166666666668</v>
+        <v>29.33833333333335</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C74" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D74" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F74" t="n">
-        <v>42067.3375</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>29.35166666666668</v>
+        <v>29.34166666666668</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D75" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E75" t="n">
         <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>1656.4626</v>
+        <v>42067.3375</v>
       </c>
       <c r="G75" t="n">
-        <v>29.35833333333334</v>
+        <v>29.35166666666668</v>
       </c>
       <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>28.4</v>
       </c>
       <c r="C76" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D76" t="n">
         <v>28.4</v>
       </c>
       <c r="E76" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>1656.4626</v>
       </c>
       <c r="G76" t="n">
-        <v>29.36666666666668</v>
+        <v>29.35833333333334</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C77" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D77" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E77" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F77" t="n">
-        <v>17945.3715</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>29.37666666666668</v>
+        <v>29.36666666666668</v>
       </c>
       <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="C78" t="n">
         <v>28.6</v>
@@ -2393,15 +2626,18 @@
         <v>28.6</v>
       </c>
       <c r="E78" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F78" t="n">
-        <v>6954.8851</v>
+        <v>17945.3715</v>
       </c>
       <c r="G78" t="n">
-        <v>29.38166666666667</v>
+        <v>29.37666666666668</v>
       </c>
       <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E79" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>6954.8851</v>
       </c>
       <c r="G79" t="n">
-        <v>29.39333333333334</v>
+        <v>29.38166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>28.7</v>
       </c>
       <c r="F80" t="n">
-        <v>40884.425</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>29.40000000000001</v>
+        <v>29.39333333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>28.7</v>
       </c>
       <c r="C81" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D81" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E81" t="n">
         <v>28.7</v>
       </c>
       <c r="F81" t="n">
-        <v>33171.6892</v>
+        <v>40884.425</v>
       </c>
       <c r="G81" t="n">
-        <v>29.41500000000001</v>
+        <v>29.40000000000001</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C82" t="n">
         <v>28.9</v>
@@ -2497,15 +2742,18 @@
         <v>28.9</v>
       </c>
       <c r="E82" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F82" t="n">
-        <v>11135.8153</v>
+        <v>33171.6892</v>
       </c>
       <c r="G82" t="n">
-        <v>29.42500000000001</v>
+        <v>29.41500000000001</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C83" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D83" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E83" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F83" t="n">
-        <v>49274.0577</v>
+        <v>11135.8153</v>
       </c>
       <c r="G83" t="n">
         <v>29.42500000000001</v>
       </c>
       <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D84" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>49274.0577</v>
       </c>
       <c r="G84" t="n">
-        <v>29.43666666666668</v>
+        <v>29.42500000000001</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="C85" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E85" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="F85" t="n">
-        <v>27265.1397</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>29.44166666666668</v>
+        <v>29.43666666666668</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C86" t="n">
         <v>28.3</v>
       </c>
       <c r="D86" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E86" t="n">
         <v>28.3</v>
       </c>
       <c r="F86" t="n">
-        <v>14849.8078</v>
+        <v>27265.1397</v>
       </c>
       <c r="G86" t="n">
-        <v>29.44000000000001</v>
+        <v>29.44166666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E87" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F87" t="n">
-        <v>9000</v>
+        <v>14849.8078</v>
       </c>
       <c r="G87" t="n">
         <v>29.44000000000001</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>28.5</v>
       </c>
       <c r="C88" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D88" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E88" t="n">
         <v>28.5</v>
       </c>
       <c r="F88" t="n">
-        <v>23318.8709</v>
+        <v>9000</v>
       </c>
       <c r="G88" t="n">
-        <v>29.43166666666668</v>
+        <v>29.44000000000001</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C89" t="n">
         <v>28.6</v>
@@ -2679,15 +2945,18 @@
         <v>28.6</v>
       </c>
       <c r="E89" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4148.559</v>
+        <v>23318.8709</v>
       </c>
       <c r="G89" t="n">
-        <v>29.42000000000001</v>
+        <v>29.43166666666668</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E90" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>4148.559</v>
       </c>
       <c r="G90" t="n">
-        <v>29.41666666666668</v>
+        <v>29.42000000000001</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C91" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D91" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E91" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F91" t="n">
-        <v>24567.7166</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>29.38500000000001</v>
+        <v>29.41666666666668</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C92" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D92" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E92" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F92" t="n">
-        <v>31266.8779</v>
+        <v>24567.7166</v>
       </c>
       <c r="G92" t="n">
-        <v>29.34833333333335</v>
+        <v>29.38500000000001</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C93" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D93" t="n">
         <v>28.6</v>
       </c>
       <c r="E93" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F93" t="n">
-        <v>26646.2172</v>
+        <v>31266.8779</v>
       </c>
       <c r="G93" t="n">
-        <v>29.31333333333334</v>
+        <v>29.34833333333335</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C94" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D94" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E94" t="n">
         <v>28.4</v>
       </c>
       <c r="F94" t="n">
-        <v>13116.8173</v>
+        <v>26646.2172</v>
       </c>
       <c r="G94" t="n">
-        <v>29.27000000000001</v>
+        <v>29.31333333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="D95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E95" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>13116.8173</v>
       </c>
       <c r="G95" t="n">
-        <v>29.23500000000001</v>
+        <v>29.27000000000001</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>28.8</v>
       </c>
       <c r="C96" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D96" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E96" t="n">
         <v>28.8</v>
       </c>
       <c r="F96" t="n">
-        <v>19207.6274</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>29.20500000000001</v>
+        <v>29.23500000000001</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>28.8</v>
       </c>
       <c r="C97" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D97" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E97" t="n">
         <v>28.8</v>
       </c>
-      <c r="E97" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F97" t="n">
-        <v>6137.0619</v>
+        <v>19207.6274</v>
       </c>
       <c r="G97" t="n">
-        <v>29.16500000000001</v>
+        <v>29.20500000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C98" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E98" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>6137.0619</v>
       </c>
       <c r="G98" t="n">
-        <v>29.12000000000002</v>
+        <v>29.16500000000001</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E99" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F99" t="n">
-        <v>9994.4566</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>29.08166666666668</v>
+        <v>29.12000000000002</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C100" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D100" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E100" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F100" t="n">
-        <v>157286.3835</v>
+        <v>9994.4566</v>
       </c>
       <c r="G100" t="n">
-        <v>29.04000000000002</v>
+        <v>29.08166666666668</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C101" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D101" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E101" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>157286.3835</v>
       </c>
       <c r="G101" t="n">
-        <v>29.02833333333335</v>
+        <v>29.04000000000002</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E102" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F102" t="n">
-        <v>38584.1642</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>29.00833333333335</v>
+        <v>29.02833333333335</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E103" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>38584.1642</v>
       </c>
       <c r="G103" t="n">
-        <v>28.98833333333335</v>
+        <v>29.00833333333335</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="C104" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D104" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E104" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F104" t="n">
-        <v>96606.9611</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>28.95833333333335</v>
+        <v>28.98833333333335</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C105" t="n">
         <v>28.6</v>
@@ -3095,15 +3409,18 @@
         <v>28.6</v>
       </c>
       <c r="E105" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F105" t="n">
-        <v>6285.8838</v>
+        <v>96606.9611</v>
       </c>
       <c r="G105" t="n">
-        <v>28.93666666666667</v>
+        <v>28.95833333333335</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E106" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>6285.8838</v>
       </c>
       <c r="G106" t="n">
-        <v>28.91500000000001</v>
+        <v>28.93666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E107" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F107" t="n">
-        <v>4995.5845</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>28.88833333333334</v>
+        <v>28.91500000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3167,21 +3490,24 @@
         <v>28.6</v>
       </c>
       <c r="C108" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D108" t="n">
         <v>28.6</v>
       </c>
       <c r="E108" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F108" t="n">
-        <v>41236.07</v>
+        <v>4995.5845</v>
       </c>
       <c r="G108" t="n">
-        <v>28.85666666666667</v>
+        <v>28.88833333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>28.6</v>
       </c>
       <c r="C109" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D109" t="n">
         <v>28.6</v>
       </c>
       <c r="E109" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>41236.07</v>
       </c>
       <c r="G109" t="n">
-        <v>28.83333333333334</v>
+        <v>28.85666666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C110" t="n">
         <v>28.6</v>
@@ -3225,15 +3554,18 @@
         <v>28.6</v>
       </c>
       <c r="E110" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="F110" t="n">
-        <v>26501.3315</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>28.80833333333334</v>
+        <v>28.83333333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>28.4</v>
       </c>
       <c r="C111" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D111" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E111" t="n">
         <v>28.4</v>
       </c>
       <c r="F111" t="n">
-        <v>535.4866</v>
+        <v>26501.3315</v>
       </c>
       <c r="G111" t="n">
-        <v>28.78166666666667</v>
+        <v>28.80833333333334</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>28.4</v>
       </c>
       <c r="F112" t="n">
-        <v>19679.6801</v>
+        <v>535.4866</v>
       </c>
       <c r="G112" t="n">
-        <v>28.765</v>
+        <v>28.78166666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C113" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D113" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E113" t="n">
         <v>28.4</v>
       </c>
       <c r="F113" t="n">
-        <v>59300.735</v>
+        <v>19679.6801</v>
       </c>
       <c r="G113" t="n">
-        <v>28.745</v>
+        <v>28.765</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E114" t="n">
         <v>28.4</v>
       </c>
-      <c r="C114" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E114" t="n">
-        <v>28.3</v>
-      </c>
       <c r="F114" t="n">
-        <v>25245.9127</v>
+        <v>59300.735</v>
       </c>
       <c r="G114" t="n">
-        <v>28.72000000000001</v>
+        <v>28.745</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C115" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D115" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E115" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F115" t="n">
-        <v>84.8034</v>
+        <v>25245.9127</v>
       </c>
       <c r="G115" t="n">
-        <v>28.69666666666667</v>
+        <v>28.72000000000001</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C116" t="n">
         <v>28.5</v>
@@ -3381,15 +3728,18 @@
         <v>28.5</v>
       </c>
       <c r="E116" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F116" t="n">
-        <v>1600.106</v>
+        <v>84.8034</v>
       </c>
       <c r="G116" t="n">
-        <v>28.67333333333334</v>
+        <v>28.69666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3748,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C117" t="n">
         <v>28.5</v>
@@ -3407,15 +3757,18 @@
         <v>28.5</v>
       </c>
       <c r="E117" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>1600.106</v>
       </c>
       <c r="G117" t="n">
-        <v>28.65333333333333</v>
+        <v>28.67333333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C118" t="n">
         <v>28.5</v>
@@ -3433,15 +3786,18 @@
         <v>28.5</v>
       </c>
       <c r="E118" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F118" t="n">
-        <v>20876.5047</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>28.63333333333333</v>
+        <v>28.65333333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C119" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D119" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E119" t="n">
         <v>28.3</v>
       </c>
       <c r="F119" t="n">
-        <v>24139.6384</v>
+        <v>20876.5047</v>
       </c>
       <c r="G119" t="n">
-        <v>28.615</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="D120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E120" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>24139.6384</v>
       </c>
       <c r="G120" t="n">
-        <v>28.60666666666667</v>
+        <v>28.615</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3864,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C121" t="n">
         <v>28.5</v>
@@ -3511,15 +3873,18 @@
         <v>28.5</v>
       </c>
       <c r="E121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F121" t="n">
-        <v>20.7609</v>
+        <v>10</v>
       </c>
       <c r="G121" t="n">
-        <v>28.59333333333333</v>
+        <v>28.60666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C122" t="n">
         <v>28.5</v>
@@ -3537,15 +3902,18 @@
         <v>28.5</v>
       </c>
       <c r="E122" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>20.7609</v>
       </c>
       <c r="G122" t="n">
-        <v>28.595</v>
+        <v>28.59333333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C123" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D123" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E123" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F123" t="n">
-        <v>32686.0298</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>28.59666666666666</v>
+        <v>28.595</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C124" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E124" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F124" t="n">
-        <v>42860.1649</v>
+        <v>32686.0298</v>
       </c>
       <c r="G124" t="n">
-        <v>28.6</v>
+        <v>28.59666666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C125" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D125" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E125" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F125" t="n">
-        <v>30573.0687</v>
+        <v>42860.1649</v>
       </c>
       <c r="G125" t="n">
-        <v>28.60833333333333</v>
+        <v>28.6</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,10 +4009,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C126" t="n">
         <v>29.2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>29.1</v>
       </c>
       <c r="D126" t="n">
         <v>29.2</v>
@@ -3644,12 +4021,15 @@
         <v>29.1</v>
       </c>
       <c r="F126" t="n">
-        <v>75139.72040000001</v>
+        <v>30573.0687</v>
       </c>
       <c r="G126" t="n">
-        <v>28.61833333333333</v>
+        <v>28.60833333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C127" t="n">
         <v>29.1</v>
       </c>
       <c r="D127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E127" t="n">
         <v>29.1</v>
       </c>
       <c r="F127" t="n">
-        <v>6193.567</v>
+        <v>75139.72040000001</v>
       </c>
       <c r="G127" t="n">
-        <v>28.62833333333333</v>
+        <v>28.61833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C128" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D128" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E128" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="F128" t="n">
-        <v>84935.41439999999</v>
+        <v>6193.567</v>
       </c>
       <c r="G128" t="n">
-        <v>28.63166666666666</v>
+        <v>28.62833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="C129" t="n">
-        <v>28.5</v>
+        <v>29</v>
       </c>
       <c r="D129" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E129" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F129" t="n">
-        <v>30502.7288</v>
+        <v>84935.41439999999</v>
       </c>
       <c r="G129" t="n">
-        <v>28.62666666666666</v>
+        <v>28.63166666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D130" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="E130" t="n">
         <v>28.5</v>
       </c>
       <c r="F130" t="n">
-        <v>121</v>
+        <v>30502.7288</v>
       </c>
       <c r="G130" t="n">
         <v>28.62666666666666</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +4154,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C131" t="n">
         <v>29</v>
@@ -3771,15 +4163,18 @@
         <v>29</v>
       </c>
       <c r="E131" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="F131" t="n">
-        <v>3448.27586206</v>
+        <v>121</v>
       </c>
       <c r="G131" t="n">
-        <v>28.63499999999999</v>
+        <v>28.62666666666666</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,544 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C132" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="D132" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E132" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F132" t="n">
-        <v>33</v>
+        <v>3448.27586206</v>
       </c>
       <c r="G132" t="n">
-        <v>28.64999999999999</v>
+        <v>28.63499999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E133" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>88534.2971</v>
-      </c>
-      <c r="G133" t="n">
-        <v>28.64833333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3199.1245</v>
-      </c>
-      <c r="G134" t="n">
-        <v>28.64999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F135" t="n">
-        <v>54.4686</v>
-      </c>
-      <c r="G135" t="n">
-        <v>28.65666666666666</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4250.5827</v>
-      </c>
-      <c r="G136" t="n">
-        <v>28.66166666666666</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>11</v>
-      </c>
-      <c r="G137" t="n">
-        <v>28.66999999999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C138" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E138" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>31610.0671</v>
-      </c>
-      <c r="G138" t="n">
-        <v>28.66833333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>107.9649</v>
-      </c>
-      <c r="G139" t="n">
-        <v>28.665</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>51394.4285</v>
-      </c>
-      <c r="G140" t="n">
-        <v>28.65666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>28.64999999999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3458.2758</v>
-      </c>
-      <c r="G142" t="n">
-        <v>28.64333333333332</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>28</v>
-      </c>
-      <c r="F143" t="n">
-        <v>223869.7317</v>
-      </c>
-      <c r="G143" t="n">
-        <v>28.63999999999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>22380.6917</v>
-      </c>
-      <c r="G144" t="n">
-        <v>28.62499999999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>28.62833333333332</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>7284.2933</v>
-      </c>
-      <c r="G146" t="n">
-        <v>28.63166666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>32</v>
-      </c>
-      <c r="G147" t="n">
-        <v>28.63166666666666</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>28</v>
-      </c>
-      <c r="F148" t="n">
-        <v>137048.8068</v>
-      </c>
-      <c r="G148" t="n">
-        <v>28.62999999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>28</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>28</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>512840.4961</v>
-      </c>
-      <c r="G149" t="n">
-        <v>28.61166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10</v>
-      </c>
-      <c r="G150" t="n">
-        <v>28.59999999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>196187.9127</v>
-      </c>
-      <c r="G151" t="n">
-        <v>28.57666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>91814.67389999999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>28.56166666666666</v>
-      </c>
-      <c r="H152" t="n">
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
